--- a/output/MRBB_results - Test.xlsx
+++ b/output/MRBB_results - Test.xlsx
@@ -479,26 +479,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76835</v>
+        <v>8105</v>
       </c>
       <c r="C2" t="n">
-        <v>317002.9398351738</v>
+        <v>280877.9913285847</v>
       </c>
       <c r="D2" t="n">
-        <v>18166.25422513405</v>
+        <v>72704.63277623027</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.619418483904</v>
+        <v>1677.790837575197</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>915100</v>
+        <v>754608</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,300 +540,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>54110</t>
+          <t>30216</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>738</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30224</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12688</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>54126</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1288</v>
+        <v>6752</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>54130</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274</v>
+        <v>546</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>54155</t>
+          <t>30248</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1566</v>
+        <v>59</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>54162</t>
+          <t>31029</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1451</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>54165</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>54173</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1490</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>54180</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>884</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>54208</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1745</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>54217</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>362</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>54227</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>54229</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1587</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>54230</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>54301</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7338</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>54302</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6740</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>54303</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7135</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>54304</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8844</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>54311</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10246</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>54313</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>13137</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
@@ -864,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
@@ -875,97 +665,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66619</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1227</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1168</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1428</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>986</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12">
@@ -975,7 +765,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2244</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13">
@@ -985,17 +775,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +815,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
@@ -1046,7 +836,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1056,7 +846,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1066,7 +856,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +866,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1086,7 +876,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2097</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8">
@@ -1096,7 +886,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5581</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +896,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10407</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="10">
@@ -1116,7 +906,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18136</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11">
@@ -1126,7 +916,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12773</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12">
@@ -1136,7 +926,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9045</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13">
@@ -1146,7 +936,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11337</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14">
@@ -1156,7 +946,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3693</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15">
@@ -1166,7 +956,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1341</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -1176,7 +966,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>953</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1186,7 +976,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>368</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1196,7 +986,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1206,7 +996,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1026,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1047,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47954</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
@@ -1267,7 +1057,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1277,7 +1067,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -1287,7 +1077,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14118</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="7">
@@ -1297,7 +1087,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8127</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="8">
@@ -1307,7 +1097,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3477</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9">
@@ -1317,7 +1107,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1321</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10">
@@ -1327,7 +1117,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1127,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
@@ -1347,7 +1137,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1167,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1188,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1418,7 +1208,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1428,7 +1218,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -1438,7 +1228,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46641</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="8">
@@ -1448,7 +1238,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14283</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1248,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3142</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="10">
@@ -1468,7 +1258,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12283</v>
+        <v>4008</v>
       </c>
     </row>
   </sheetData>
@@ -1585,28 +1375,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ED 1051</t>
+          <t>F0010-059-000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>120 S Erie St</t>
+          <t>129 Watkins Dr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30216</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13000</v>
+        <v>84100</v>
       </c>
       <c r="E2" t="n">
-        <v>7187</v>
+        <v>14810</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1873-01-01</t>
+          <t>2007-01-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1616,18 +1406,18 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1347</v>
+        <v>1474</v>
       </c>
       <c r="J2" t="n">
-        <v>299000</v>
+        <v>159000</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -1640,66 +1430,66 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>168000</v>
+        <v>215000</v>
       </c>
       <c r="P2" t="n">
-        <v>148077826</v>
+        <v>37367327</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ED 1435-B</t>
+          <t>0033C-230-000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>801 S Erie St</t>
+          <t>243 Jasmine Dr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80000</v>
+        <v>37100</v>
       </c>
       <c r="E3" t="n">
-        <v>10149</v>
+        <v>10890</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>2007-01-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2-9 units</t>
+          <t>SFH</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1726</v>
+        <v>1550</v>
       </c>
       <c r="J3" t="n">
-        <v>223000</v>
+        <v>245000</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -1712,45 +1502,45 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>225000</v>
+        <v>227000</v>
       </c>
       <c r="P3" t="n">
-        <v>148078206</v>
+        <v>37363794</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WD 128-1</t>
+          <t>0011A-053-000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>606 S 6th St</t>
+          <t>135 Whippoorwill Ridge Rd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13000</v>
+        <v>137900</v>
       </c>
       <c r="E4" t="n">
-        <v>7318</v>
+        <v>43560</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1955-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1760,18 +1550,18 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>672</v>
+        <v>1828</v>
       </c>
       <c r="J4" t="n">
-        <v>120000</v>
+        <v>364000</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1784,45 +1574,45 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>150000</v>
+        <v>319900</v>
       </c>
       <c r="P4" t="n">
-        <v>148067951</v>
+        <v>37357474</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ED 371-M-58</t>
+          <t>J0190-071-000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1323 Cook St</t>
+          <t>4 Curry St</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>83000</v>
+        <v>19550</v>
       </c>
       <c r="E5" t="n">
-        <v>9365</v>
+        <v>8276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1965-01-01</t>
+          <t>1902-01-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1832,18 +1622,18 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1093</v>
+        <v>832</v>
       </c>
       <c r="J5" t="n">
-        <v>212000</v>
+        <v>143000</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1856,45 +1646,45 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>208000</v>
+        <v>42000</v>
       </c>
       <c r="P5" t="n">
-        <v>148079518</v>
+        <v>37364545</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ED 230</t>
+          <t>0046B-121-000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>500 S Erie St</t>
+          <t>271 Royal Ct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79900</v>
+        <v>104883</v>
       </c>
       <c r="E6" t="n">
-        <v>10803</v>
+        <v>14810</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1936-01-01</t>
+          <t>2001-01-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1904,18 +1694,18 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1248</v>
+        <v>1122</v>
       </c>
       <c r="J6" t="n">
-        <v>264000</v>
+        <v>246000</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1928,45 +1718,45 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>259900</v>
+        <v>200000</v>
       </c>
       <c r="P6" t="n">
-        <v>148022771</v>
+        <v>37357137</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L 1531</t>
+          <t>0032A-063-000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1883 Wizard Way</t>
+          <t>143 Kirts Rdg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="E7" t="n">
-        <v>13939</v>
+        <v>21780</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1976,69 +1766,69 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="J7" t="n">
-        <v>501000</v>
+        <v>244000</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>480000</v>
+        <v>237000</v>
       </c>
       <c r="P7" t="n">
-        <v>148068810</v>
+        <v>37354938</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ED 582-86</t>
+          <t>00440-027-C00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1796 Camarillo Ct</t>
+          <t>318 Cedar Creek Rd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>109900</v>
+        <v>94975</v>
       </c>
       <c r="E8" t="n">
-        <v>15420</v>
+        <v>85813</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2048,18 +1838,18 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1872</v>
+        <v>1579</v>
       </c>
       <c r="J8" t="n">
-        <v>379000</v>
+        <v>300000</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -2072,45 +1862,45 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>370000</v>
+        <v>279900</v>
       </c>
       <c r="P8" t="n">
-        <v>148032136</v>
+        <v>37364717</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WD 1571</t>
+          <t>00700-039-000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>397 Cross Gate Ln</t>
+          <t>309 Tussahaw Point Dr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87000</v>
+        <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>13809</v>
+        <v>61855</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2006-01-01</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2120,69 +1910,69 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1552</v>
+        <v>1296</v>
       </c>
       <c r="J9" t="n">
-        <v>358000</v>
+        <v>255000</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>412000</v>
+        <v>220000</v>
       </c>
       <c r="P9" t="n">
-        <v>148082890</v>
+        <v>37357986</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ED 371-M-105</t>
+          <t>J0290-013-000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1450 Cook St</t>
+          <t>296 Oakhill Dr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>84300</v>
+        <v>15900</v>
       </c>
       <c r="E10" t="n">
-        <v>8799</v>
+        <v>87120</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1965-01-01</t>
+          <t>1989-01-01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2192,69 +1982,69 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1372</v>
+        <v>1859</v>
       </c>
       <c r="J10" t="n">
-        <v>208000</v>
+        <v>307000</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>215000</v>
+        <v>279900</v>
       </c>
       <c r="P10" t="n">
-        <v>148079337</v>
+        <v>37368293</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ED 1203-Q-6</t>
+          <t>0046B-064-000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>608 Jordan Rd</t>
+          <t>171 Princess Ct</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="E11" t="n">
-        <v>7275</v>
+        <v>23087</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1930-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2264,18 +2054,18 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1200</v>
+        <v>1693</v>
       </c>
       <c r="J11" t="n">
-        <v>234000</v>
+        <v>245000</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -2288,45 +2078,45 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="P11" t="n">
-        <v>148057131</v>
+        <v>37356719</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WD 726-M-12</t>
+          <t>00700-038-A00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>802 Morning Glory Ln</t>
+          <t>115 Quail Trl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>145000</v>
+        <v>27000</v>
       </c>
       <c r="E12" t="n">
-        <v>10716</v>
+        <v>22216</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1968-01-01</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2336,18 +2126,18 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1771</v>
+        <v>1181</v>
       </c>
       <c r="J12" t="n">
-        <v>288000</v>
+        <v>241000</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -2360,90 +2150,90 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P12" t="n">
-        <v>148068797</v>
+        <v>37357972</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ED 1108</t>
+          <t>0056A-095-000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>214 S Ontario St</t>
+          <t>279 Southern Shores Rd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>30233</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65000</v>
+        <v>29700</v>
       </c>
       <c r="E13" t="n">
-        <v>7187</v>
+        <v>10019</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1890-01-01</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2-9 units</t>
+          <t>SFH</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1152</v>
+        <v>1364</v>
       </c>
       <c r="J13" t="n">
-        <v>225000</v>
+        <v>226000</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Butts</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P13" t="n">
-        <v>148077967</v>
+        <v>37365015</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>55009</v>
+        <v>13035</v>
       </c>
     </row>
   </sheetData>

--- a/output/MRBB_results - Test.xlsx
+++ b/output/MRBB_results - Test.xlsx
@@ -479,26 +479,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8105</v>
+        <v>76486</v>
       </c>
       <c r="C2" t="n">
-        <v>280877.9913285847</v>
+        <v>131544.9551149435</v>
       </c>
       <c r="D2" t="n">
-        <v>72704.63277623027</v>
+        <v>17070.2601532818</v>
       </c>
       <c r="E2" t="n">
-        <v>1677.790837575197</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>754608</v>
+        <v>1415.327758431834</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,90 +534,345 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30216</t>
+          <t>39041</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738</v>
+        <v>1016</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30224</t>
+          <t>39056</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>9035</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30233</t>
+          <t>39059</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6752</v>
+        <v>93</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>39066</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546</v>
+        <v>1166</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30248</t>
+          <t>39071</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31029</t>
+          <t>39154</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2648</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>39170</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3393</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>39174</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>39175</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1262</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>39201</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2172</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>39203</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>39204</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4975</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>39206</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6816</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>39208</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>39209</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9162</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>39211</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8498</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>39212</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10628</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>39213</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>39218</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>39232</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Hinds</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>39272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4472</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
@@ -654,7 +903,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
@@ -665,7 +914,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -675,7 +924,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
@@ -685,7 +934,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
@@ -695,7 +944,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6">
@@ -705,7 +954,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7">
@@ -715,7 +964,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="8">
@@ -725,7 +974,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1460</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +984,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1141</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="10">
@@ -745,7 +994,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1420</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="11">
@@ -755,7 +1004,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>819</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +1014,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>827</v>
+        <v>39242</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +1024,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +1034,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +1064,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
@@ -846,7 +1095,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -856,7 +1105,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="6">
@@ -866,7 +1115,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>22942</v>
       </c>
     </row>
     <row r="7">
@@ -876,7 +1125,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>537</v>
+        <v>11187</v>
       </c>
     </row>
     <row r="8">
@@ -886,7 +1135,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495</v>
+        <v>11459</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +1145,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1566</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="10">
@@ -906,7 +1155,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1200</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="11">
@@ -916,7 +1165,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>871</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="12">
@@ -926,7 +1175,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>692</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="13">
@@ -936,7 +1185,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1134</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="14">
@@ -946,7 +1195,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>282</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1205,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -966,7 +1215,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -976,7 +1225,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -986,7 +1235,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -996,7 +1245,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1275,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1296,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="4">
@@ -1057,7 +1306,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1067,7 +1316,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1326,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2937</v>
+        <v>35750</v>
       </c>
     </row>
     <row r="7">
@@ -1087,7 +1336,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2320</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1346,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1237</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="9">
@@ -1107,7 +1356,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>596</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="10">
@@ -1117,7 +1366,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11">
@@ -1127,7 +1376,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12">
@@ -1137,7 +1386,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1416,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Butts</t>
+          <t>Hinds</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1437,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -1198,7 +1447,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1208,7 +1457,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1218,7 +1467,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1477,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1173</v>
+        <v>46462</v>
       </c>
     </row>
     <row r="8">
@@ -1238,7 +1487,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263</v>
+        <v>13718</v>
       </c>
     </row>
     <row r="9">
@@ -1248,7 +1497,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1296</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="10">
@@ -1258,7 +1507,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4008</v>
+        <v>10299</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,870 +1621,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>F0010-059-000</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>129 Watkins Dr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30216</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>84100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14810</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-04-28</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1474</v>
-      </c>
-      <c r="J2" t="n">
-        <v>159000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>215000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>37367327</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0033C-230-000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>243 Jasmine Dr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>37100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10890</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2022-12-07</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J3" t="n">
-        <v>245000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>227000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37363794</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0011A-053-000</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>135 Whippoorwill Ridge Rd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>137900</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43560</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2000-01-01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2023-06-02</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1828</v>
-      </c>
-      <c r="J4" t="n">
-        <v>364000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>319900</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37357474</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J0190-071-000</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4 Curry St</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>19550</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8276</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1902-01-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>832</v>
-      </c>
-      <c r="J5" t="n">
-        <v>143000</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>42000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>37364545</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0046B-121-000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>271 Royal Ct</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>104883</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14810</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2001-01-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2022-12-09</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1122</v>
-      </c>
-      <c r="J6" t="n">
-        <v>246000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37357137</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0032A-063-000</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>143 Kirts Rdg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>23500</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21780</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2005-01-01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2022-11-29</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1490</v>
-      </c>
-      <c r="J7" t="n">
-        <v>244000</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>237000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>37354938</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>00440-027-C00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>318 Cedar Creek Rd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>94975</v>
-      </c>
-      <c r="E8" t="n">
-        <v>85813</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1998-01-01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023-06-06</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1579</v>
-      </c>
-      <c r="J8" t="n">
-        <v>300000</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>279900</v>
-      </c>
-      <c r="P8" t="n">
-        <v>37364717</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>00700-039-000</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>309 Tussahaw Point Dr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61855</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1998-01-01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1296</v>
-      </c>
-      <c r="J9" t="n">
-        <v>255000</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>220000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>37357986</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>J0290-013-000</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>296 Oakhill Dr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>15900</v>
-      </c>
-      <c r="E10" t="n">
-        <v>87120</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1989-01-01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1859</v>
-      </c>
-      <c r="J10" t="n">
-        <v>307000</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>279900</v>
-      </c>
-      <c r="P10" t="n">
-        <v>37368293</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0046B-064-000</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>171 Princess Ct</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>135000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23087</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2000-01-01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1693</v>
-      </c>
-      <c r="J11" t="n">
-        <v>245000</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>235000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>37356719</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>00700-038-A00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>115 Quail Trl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>27000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22216</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1998-01-01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2023-06-08</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1181</v>
-      </c>
-      <c r="J12" t="n">
-        <v>241000</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>230000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>37357972</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0056A-095-000</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>279 Southern Shores Rd</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30233</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>29700</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10019</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2005-01-01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>SFH</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1364</v>
-      </c>
-      <c r="J13" t="n">
-        <v>226000</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Butts</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>220000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>37365015</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>13035</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
